--- a/files/Format Import Guru.xlsx
+++ b/files/Format Import Guru.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20112" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>ramdan</t>
   </si>
@@ -33,18 +33,12 @@
     <t>No</t>
   </si>
   <si>
-    <t>no_hp</t>
-  </si>
-  <si>
     <t>alamat</t>
   </si>
   <si>
     <t>Bekasi</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -57,16 +51,10 @@
     <t>level</t>
   </si>
   <si>
-    <t>Ket Level</t>
-  </si>
-  <si>
-    <t>2 = Wali Kelas</t>
-  </si>
-  <si>
-    <t>3 = Guru</t>
-  </si>
-  <si>
     <t>nip</t>
+  </si>
+  <si>
+    <t>GURU</t>
   </si>
 </sst>
 </file>
@@ -90,21 +78,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -112,30 +94,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -438,32 +404,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" activeCellId="1" sqref="G8 G8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -475,31 +439,16 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -512,28 +461,22 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>83874731480</v>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
         <v>0</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -545,7 +488,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -557,7 +500,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/Format Import Guru.xlsx
+++ b/files/Format Import Guru.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ramdan</t>
   </si>
@@ -40,12 +40,6 @@
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>saepulramdan244@gmail.com</t>
   </si>
   <si>
     <t>level</t>
@@ -61,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,24 +63,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,17 +86,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F5" activeCellId="1" sqref="F2 F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,37 +423,33 @@
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -464,20 +465,14 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
+      <c r="F2">
+        <v>9090</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/files/Format Import Guru.xlsx
+++ b/files/Format Import Guru.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hapalan\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7559F49F-3F1C-40F8-A794-F669659388F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20112" windowHeight="8016"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ramdan</t>
   </si>
@@ -30,31 +36,16 @@
     <t>Jenis_kelamin</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>alamat</t>
-  </si>
-  <si>
-    <t>Bekasi</t>
-  </si>
-  <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>level</t>
   </si>
   <si>
     <t>nip</t>
   </si>
-  <si>
-    <t>GURU</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,6 +109,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -165,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,9 +192,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,6 +244,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -408,68 +436,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" activeCellId="1" sqref="F2 F5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>9090</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2">
+      <c r="D2">
         <v>9090</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -478,24 +486,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
